--- a/Resource/excel/table/W-玩家-属性重置-(框架定义,策划填写).xlsx
+++ b/Resource/excel/table/W-玩家-属性重置-(框架定义,策划填写).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\table\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="24260"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="24255"/>
   </bookViews>
   <sheets>
     <sheet name="reset" sheetId="1" r:id="rId1"/>
@@ -23,13 +28,14 @@
     <author>lori</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -43,13 +49,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="1">
+    <comment ref="C6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>lori:</t>
@@ -58,6 +65,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -69,13 +77,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0">
+    <comment ref="D6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>刘小兵(橘右京):</t>
@@ -84,6 +93,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -91,13 +101,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="1">
+    <comment ref="H6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -107,6 +118,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">  
@@ -122,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>xml=reset</t>
   </si>
@@ -260,19 +272,21 @@
   </si>
   <si>
     <t>onlinetime</t>
+  </si>
+  <si>
+    <t>endlessscore</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽模式里程数重置</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -283,6 +297,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -290,173 +305,38 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,13 +351,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,13 +375,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,194 +391,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -734,251 +428,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,61 +505,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1129,12 +533,15 @@
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="0005FF6F"/>
+      <color rgb="FF05FF6F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1463,25 +870,24 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="$A15:$XFD15"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="18.375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="24.5096153846154" style="11" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="11" customWidth="1"/>
     <col min="4" max="4" width="22.75" style="11" customWidth="1"/>
     <col min="5" max="5" width="40" style="11" customWidth="1"/>
     <col min="6" max="6" width="21.125" style="11" customWidth="1"/>
@@ -1497,7 +903,7 @@
     <col min="18" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1514,7 +920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="12" spans="1:9">
+    <row r="2" spans="1:14" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1543,7 +949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:9">
+    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1569,17 +975,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:1">
+    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" spans="1:1">
+    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1" spans="1:9">
+    <row r="6" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1608,7 +1014,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" spans="1:14">
+    <row r="7" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
@@ -1642,7 +1048,7 @@
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
     </row>
-    <row r="8" s="7" customFormat="1" spans="1:9">
+    <row r="8" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14" t="s">
         <v>30</v>
       </c>
@@ -1666,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="7" customFormat="1" spans="1:9">
+    <row r="9" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
       <c r="B9" s="14" t="s">
         <v>33</v>
@@ -1688,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="7" customFormat="1" spans="1:8">
+    <row r="10" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14"/>
       <c r="B10" s="14" t="s">
         <v>35</v>
@@ -1703,7 +1109,7 @@
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
     </row>
-    <row r="11" s="8" customFormat="1" spans="1:5">
+    <row r="11" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="15" t="s">
         <v>37</v>
@@ -1716,7 +1122,7 @@
       </c>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" s="9" customFormat="1" spans="1:4">
+    <row r="12" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="16"/>
       <c r="B12" s="16" t="s">
         <v>38</v>
@@ -1728,7 +1134,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" s="9" customFormat="1" spans="1:4">
+    <row r="13" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16"/>
       <c r="B13" s="16" t="s">
         <v>40</v>
@@ -1740,7 +1146,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" s="9" customFormat="1" spans="1:4">
+    <row r="14" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16"/>
       <c r="B14" s="16" t="s">
         <v>42</v>
@@ -1752,7 +1158,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" s="9" customFormat="1" spans="1:9">
+    <row r="15" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16"/>
       <c r="B15" s="16" t="s">
         <v>44</v>
@@ -1774,70 +1180,89 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="10" customFormat="1" spans="1:2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-    </row>
-    <row r="17" s="10" customFormat="1" spans="1:2">
+    <row r="16" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="9">
+        <v>3</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
     </row>
-    <row r="18" s="10" customFormat="1" spans="1:2">
+    <row r="18" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
     </row>
-    <row r="19" s="10" customFormat="1" spans="1:2">
+    <row r="19" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
     </row>
-    <row r="20" s="10" customFormat="1" spans="1:2">
+    <row r="20" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
     </row>
-    <row r="21" s="10" customFormat="1" spans="1:2">
+    <row r="21" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
     </row>
-    <row r="22" s="10" customFormat="1" spans="1:2">
+    <row r="22" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
     </row>
-    <row r="23" s="10" customFormat="1" spans="1:2">
+    <row r="23" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
     </row>
-    <row r="24" s="10" customFormat="1" spans="1:2">
+    <row r="24" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="19"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="19"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="19"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="19"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="19"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="19"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="19"/>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="19"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>